--- a/AE Sakib/Satkhira Div-II/Regulator/Bamon Danga Sluice/Hydraulic_Calcualtion_Input Bamondanga Sluice.xlsx
+++ b/AE Sakib/Satkhira Div-II/Regulator/Bamon Danga Sluice/Hydraulic_Calcualtion_Input Bamondanga Sluice.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>parameters</t>
   </si>
@@ -69,6 +69,24 @@
     <t>Vent Height</t>
   </si>
   <si>
+    <t>Pier_width</t>
+  </si>
+  <si>
+    <t>Abutment_width</t>
+  </si>
+  <si>
+    <t>flare_Angle_min</t>
+  </si>
+  <si>
+    <t>flare_Angle_max</t>
+  </si>
+  <si>
+    <t>glacis_drop_min</t>
+  </si>
+  <si>
+    <t>glacis_drop_max</t>
+  </si>
+  <si>
     <t>sq mile</t>
   </si>
   <si>
@@ -79,6 +97,12 @@
   </si>
   <si>
     <t>feet</t>
+  </si>
+  <si>
+    <t>inch</t>
+  </si>
+  <si>
+    <t>degree</t>
   </si>
   <si>
     <t>Q</t>
@@ -499,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -524,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -538,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>3.5</v>
@@ -552,7 +576,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>10.5</v>
@@ -566,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>-6.5</v>
@@ -580,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>-5.4</v>
@@ -594,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>13</v>
@@ -608,7 +632,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>14</v>
@@ -644,7 +668,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>-5</v>
@@ -658,7 +682,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>27.702</v>
@@ -683,7 +707,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -697,10 +721,94 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -710,7 +818,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -718,64 +826,64 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -783,64 +891,64 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>375</v>
+        <v>369.0575269700599</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2">
-        <v>75</v>
+        <v>73.81150539401197</v>
       </c>
       <c r="G2">
-        <v>5.590133999535612</v>
+        <v>5.530920524928471</v>
       </c>
       <c r="H2">
-        <v>13.41649413166669</v>
+        <v>13.34524787715451</v>
       </c>
       <c r="I2">
-        <v>8.826018110060399</v>
+        <v>10.15695155792199</v>
       </c>
       <c r="J2">
-        <v>42.48801614995029</v>
+        <v>36.33546196075048</v>
       </c>
       <c r="K2">
-        <v>1.701374931864428</v>
+        <v>1.206229438405845</v>
       </c>
       <c r="L2">
-        <v>24.97275312701968</v>
+        <v>30.1231762414715</v>
       </c>
       <c r="M2">
-        <v>25.28310238300384</v>
+        <v>21.09941617823036</v>
       </c>
       <c r="N2">
-        <v>14.83204055891842</v>
+        <v>17.49136202881483</v>
       </c>
       <c r="O2">
-        <v>7.311845524959651</v>
+        <v>7.66414412272808</v>
       </c>
       <c r="P2">
-        <v>2.028494790855182</v>
+        <v>2.282232921083002</v>
       </c>
       <c r="Q2">
-        <v>3.37394868655055</v>
+        <v>4.833457065447645</v>
       </c>
       <c r="R2">
-        <v>38.71224709235703</v>
+        <v>44.55961132182343</v>
       </c>
       <c r="S2">
-        <v>68.82760718122111</v>
+        <v>52.38600240193701</v>
       </c>
       <c r="T2">
-        <v>3.549039578710398</v>
+        <v>7.283218380699731</v>
       </c>
       <c r="U2">
-        <v>31.17239281877889</v>
+        <v>47.61399759806299</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -848,64 +956,64 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>375</v>
+        <v>369.0575269700599</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3">
-        <v>75</v>
+        <v>73.81150539401197</v>
       </c>
       <c r="G3">
-        <v>5.590133999535612</v>
+        <v>5.530920524928471</v>
       </c>
       <c r="H3">
-        <v>13.41649413166669</v>
+        <v>13.34524787715451</v>
       </c>
       <c r="I3">
-        <v>7.210122096252283</v>
+        <v>10.89365892333942</v>
       </c>
       <c r="J3">
-        <v>52.01021494419901</v>
+        <v>33.87819735932455</v>
       </c>
       <c r="K3">
-        <v>2.13040564928647</v>
+        <v>1.082317681279823</v>
       </c>
       <c r="L3">
-        <v>24.41329188251948</v>
+        <v>31.30152814214783</v>
       </c>
       <c r="M3">
-        <v>16.95086251933588</v>
+        <v>21.92492104796819</v>
       </c>
       <c r="N3">
-        <v>22.12276806399892</v>
+        <v>16.8327870445974</v>
       </c>
       <c r="O3">
-        <v>7.879098726863903</v>
+        <v>7.592637991480675</v>
       </c>
       <c r="P3">
-        <v>2.807779015202718</v>
+        <v>2.216987964326054</v>
       </c>
       <c r="Q3">
-        <v>2.947591226314224</v>
+        <v>5.302250330138467</v>
       </c>
       <c r="R3">
-        <v>39.6659822352843</v>
+        <v>44.92121014038589</v>
       </c>
       <c r="S3">
-        <v>75.14762912867792</v>
+        <v>48.48799345576432</v>
       </c>
       <c r="T3">
-        <v>2.829492376792355</v>
+        <v>8.394592737675319</v>
       </c>
       <c r="U3">
-        <v>24.85237087132208</v>
+        <v>51.51200654423568</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -913,64 +1021,64 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>375</v>
+        <v>369.0575269700599</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="F4">
-        <v>75</v>
+        <v>73.81150539401197</v>
       </c>
       <c r="G4">
-        <v>5.590133999535612</v>
+        <v>5.530920524928471</v>
       </c>
       <c r="H4">
-        <v>13.41649413166669</v>
+        <v>13.34524787715451</v>
       </c>
       <c r="I4">
-        <v>7.529735024643046</v>
+        <v>11.63036628875685</v>
       </c>
       <c r="J4">
-        <v>49.8025493291216</v>
+        <v>31.73223592509122</v>
       </c>
       <c r="K4">
-        <v>2.028878548291361</v>
+        <v>0.9788834027687718</v>
       </c>
       <c r="L4">
-        <v>24.5468361677259</v>
+        <v>32.4167677532754</v>
       </c>
       <c r="M4">
-        <v>18.64168367980472</v>
+        <v>22.71170601257102</v>
       </c>
       <c r="N4">
-        <v>20.11620873098777</v>
+        <v>16.24966115560782</v>
       </c>
       <c r="O4">
-        <v>7.758271520583052</v>
+        <v>7.518758011233912</v>
       </c>
       <c r="P4">
-        <v>2.59287248166277</v>
+        <v>2.161216138533639</v>
       </c>
       <c r="Q4">
-        <v>3.036963434810158</v>
+        <v>5.773993507617236</v>
       </c>
       <c r="R4">
-        <v>39.53281150881266</v>
+        <v>45.12513479840947</v>
       </c>
       <c r="S4">
-        <v>73.76360780060803</v>
+        <v>45.06919508620196</v>
       </c>
       <c r="T4">
-        <v>2.987065986866337</v>
+        <v>9.501041187470458</v>
       </c>
       <c r="U4">
-        <v>26.23639219939197</v>
+        <v>54.93080491379804</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -978,64 +1086,64 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>375</v>
+        <v>369.0575269700599</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
       <c r="F5">
-        <v>75</v>
+        <v>73.81150539401197</v>
       </c>
       <c r="G5">
-        <v>5.590133999535612</v>
+        <v>5.530920524928471</v>
       </c>
       <c r="H5">
-        <v>13.41649413166669</v>
+        <v>13.34524787715451</v>
       </c>
       <c r="I5">
-        <v>7.850919925841653</v>
+        <v>10.90271505750044</v>
       </c>
       <c r="J5">
-        <v>47.76510313978248</v>
+        <v>33.8500570751108</v>
       </c>
       <c r="K5">
-        <v>1.93632231090932</v>
+        <v>1.12031086609636</v>
       </c>
       <c r="L5">
-        <v>24.66795061476693</v>
+        <v>30.2148788336391</v>
       </c>
       <c r="M5">
-        <v>20.32016910252488</v>
+        <v>23.13983699658595</v>
       </c>
       <c r="N5">
-        <v>18.4545708309782</v>
+        <v>15.9490115260756</v>
       </c>
       <c r="O5">
-        <v>7.641231070050208</v>
+        <v>7.429850499030605</v>
       </c>
       <c r="P5">
-        <v>2.415130580635214</v>
+        <v>2.146612711541977</v>
       </c>
       <c r="Q5">
-        <v>3.124038012832464</v>
+        <v>5.030644718179307</v>
       </c>
       <c r="R5">
-        <v>39.36387043807213</v>
+        <v>43.53582346724629</v>
       </c>
       <c r="S5">
-        <v>72.44474509743749</v>
+        <v>50.6796991664596</v>
       </c>
       <c r="T5">
-        <v>3.137221156527151</v>
+        <v>7.54422102098601</v>
       </c>
       <c r="U5">
-        <v>27.55525490256251</v>
+        <v>49.3203008335404</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1043,64 +1151,64 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>375</v>
+        <v>369.0575269700599</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6">
-        <v>75</v>
+        <v>73.81150539401197</v>
       </c>
       <c r="G6">
-        <v>5.590133999535612</v>
+        <v>5.530920524928471</v>
       </c>
       <c r="H6">
-        <v>13.41649413166669</v>
+        <v>13.34524787715451</v>
       </c>
       <c r="I6">
-        <v>7.946829461669711</v>
+        <v>11.74596006571479</v>
       </c>
       <c r="J6">
-        <v>47.1886306115859</v>
+        <v>31.41995417192841</v>
       </c>
       <c r="K6">
-        <v>1.808048417340064</v>
+        <v>1.001115311976458</v>
       </c>
       <c r="L6">
-        <v>26.09920738793495</v>
+        <v>31.38495016113317</v>
       </c>
       <c r="M6">
-        <v>18.25017233373974</v>
+        <v>24.04315063921941</v>
       </c>
       <c r="N6">
-        <v>20.54775117420257</v>
+        <v>15.34979888900458</v>
       </c>
       <c r="O6">
-        <v>7.888772599683619</v>
+        <v>7.341626723360752</v>
       </c>
       <c r="P6">
-        <v>2.604682910371461</v>
+        <v>2.090789884503684</v>
       </c>
       <c r="Q6">
-        <v>3.42053748730596</v>
+        <v>5.527788977077737</v>
       </c>
       <c r="R6">
-        <v>41.95699685817053</v>
+        <v>43.74952873855163</v>
       </c>
       <c r="S6">
-        <v>68.18123129752254</v>
+        <v>46.79587480165866</v>
       </c>
       <c r="T6">
-        <v>3.940818459305272</v>
+        <v>8.670346836922912</v>
       </c>
       <c r="U6">
-        <v>31.81876870247746</v>
+        <v>53.20412519834134</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1108,64 +1216,64 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>375</v>
+        <v>369.0575269700599</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>75</v>
+        <v>73.81150539401197</v>
       </c>
       <c r="G7">
-        <v>5.590133999535612</v>
+        <v>5.530920524928471</v>
       </c>
       <c r="H7">
-        <v>13.41649413166669</v>
+        <v>13.34524787715451</v>
       </c>
       <c r="I7">
-        <v>8.372980032857395</v>
+        <v>12.58920507392914</v>
       </c>
       <c r="J7">
-        <v>44.7869215653708</v>
+        <v>29.31539559509897</v>
       </c>
       <c r="K7">
-        <v>1.707964532754151</v>
+        <v>0.9022109857464846</v>
       </c>
       <c r="L7">
-        <v>26.22239555124154</v>
+        <v>32.49283821438237</v>
       </c>
       <c r="M7">
-        <v>20.0513569752092</v>
+        <v>24.90812289575514</v>
       </c>
       <c r="N7">
-        <v>18.70197615371553</v>
+        <v>14.81675389649515</v>
       </c>
       <c r="O7">
-        <v>7.729411612623706</v>
+        <v>7.25392510762764</v>
       </c>
       <c r="P7">
-        <v>2.419586003567386</v>
+        <v>2.042584349391069</v>
       </c>
       <c r="Q7">
-        <v>3.535940955409418</v>
+        <v>6.028449911201171</v>
       </c>
       <c r="R7">
-        <v>41.54798485109993</v>
+        <v>43.82682744097998</v>
       </c>
       <c r="S7">
-        <v>66.6178512629338</v>
+        <v>43.40521404524007</v>
       </c>
       <c r="T7">
-        <v>4.134446218972076</v>
+        <v>9.788849684545221</v>
       </c>
       <c r="U7">
-        <v>33.3821487370662</v>
+        <v>56.59478595475993</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1173,64 +1281,64 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>375</v>
+        <v>369.0575269700599</v>
       </c>
       <c r="C8">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8">
-        <v>75</v>
+        <v>73.81150539401197</v>
       </c>
       <c r="G8">
-        <v>5.590133999535612</v>
+        <v>5.530920524928471</v>
       </c>
       <c r="H8">
-        <v>13.41649413166669</v>
+        <v>13.34524787715451</v>
       </c>
       <c r="I8">
-        <v>8.80122656778887</v>
+        <v>11.65214649363052</v>
       </c>
       <c r="J8">
-        <v>42.60769758756604</v>
+        <v>31.6729219952564</v>
       </c>
       <c r="K8">
-        <v>1.618061252736919</v>
+        <v>1.045500766720837</v>
       </c>
       <c r="L8">
-        <v>26.3325615859696</v>
+        <v>30.2944990605765</v>
       </c>
       <c r="M8">
-        <v>21.82787194233066</v>
+        <v>25.1365302163932</v>
       </c>
       <c r="N8">
-        <v>17.17986989252785</v>
+        <v>14.68211896363377</v>
       </c>
       <c r="O8">
-        <v>7.577988931334592</v>
+        <v>7.214852082231876</v>
       </c>
       <c r="P8">
-        <v>2.267075083930246</v>
+        <v>2.03498544340107</v>
       </c>
       <c r="Q8">
-        <v>3.648108057279673</v>
+        <v>5.221240064770532</v>
       </c>
       <c r="R8">
-        <v>41.12350098232395</v>
+        <v>42.56852407702618</v>
       </c>
       <c r="S8">
-        <v>65.14934104066661</v>
+        <v>49.12340463046594</v>
       </c>
       <c r="T8">
-        <v>4.316324161695179</v>
+        <v>7.782277759384948</v>
       </c>
       <c r="U8">
-        <v>34.85065895933339</v>
+        <v>50.87659536953406</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1238,64 +1346,64 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>375</v>
+        <v>369.0575269700599</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>62.5</v>
+        <v>73.81150539401197</v>
       </c>
       <c r="G9">
-        <v>4.950336497904651</v>
+        <v>5.530920524928471</v>
       </c>
       <c r="H9">
-        <v>12.62540435916925</v>
+        <v>13.34524787715451</v>
       </c>
       <c r="I9">
-        <v>8.210122096252283</v>
+        <v>12.60245313557774</v>
       </c>
       <c r="J9">
-        <v>45.67532560461899</v>
+        <v>29.28457840705479</v>
       </c>
       <c r="K9">
-        <v>1.955698896190135</v>
+        <v>0.9309440664946456</v>
       </c>
       <c r="L9">
-        <v>23.35498869156103</v>
+        <v>31.4568613314463</v>
       </c>
       <c r="M9">
-        <v>17.13102721468459</v>
+        <v>26.11473150590746</v>
       </c>
       <c r="N9">
-        <v>21.89010590553221</v>
+        <v>14.13215858208516</v>
       </c>
       <c r="O9">
-        <v>7.220549746596251</v>
+        <v>7.113057691667118</v>
       </c>
       <c r="P9">
-        <v>3.031639788348685</v>
+        <v>1.986790940644395</v>
       </c>
       <c r="Q9">
-        <v>2.943070937822653</v>
+        <v>5.745471277938647</v>
       </c>
       <c r="R9">
-        <v>36.3274708678022</v>
+        <v>42.65658401369006</v>
       </c>
       <c r="S9">
-        <v>75.21842637502412</v>
+        <v>45.2631407642318</v>
       </c>
       <c r="T9">
-        <v>2.583604134617713</v>
+        <v>8.920127012119975</v>
       </c>
       <c r="U9">
-        <v>24.78157362497588</v>
+        <v>54.7368592357682</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1303,324 +1411,64 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>375</v>
+        <v>369.0575269700599</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>62.5</v>
+        <v>73.81150539401197</v>
       </c>
       <c r="G10">
-        <v>4.950336497904651</v>
+        <v>5.530920524928471</v>
       </c>
       <c r="H10">
-        <v>12.62540435916925</v>
+        <v>13.34524787715451</v>
       </c>
       <c r="I10">
-        <v>8.529735024643045</v>
+        <v>13.55275977752496</v>
       </c>
       <c r="J10">
-        <v>43.96385103600485</v>
+        <v>27.2311715863275</v>
       </c>
       <c r="K10">
-        <v>1.873331079155649</v>
+        <v>0.8363895404390043</v>
       </c>
       <c r="L10">
-        <v>23.46827612331094</v>
+        <v>32.558001110385</v>
       </c>
       <c r="M10">
-        <v>18.71167880028153</v>
+        <v>27.0559639576907</v>
       </c>
       <c r="N10">
-        <v>20.04095965960883</v>
+        <v>13.64052404664572</v>
       </c>
       <c r="O10">
-        <v>7.123207489024956</v>
+        <v>7.014351558227979</v>
       </c>
       <c r="P10">
-        <v>2.813474083197328</v>
+        <v>1.944659307907814</v>
       </c>
       <c r="Q10">
-        <v>3.021662705750202</v>
+        <v>6.273725334853361</v>
       </c>
       <c r="R10">
-        <v>36.22414722809822</v>
+        <v>42.62793792274393</v>
       </c>
       <c r="S10">
-        <v>73.99840294093144</v>
+        <v>41.90692696226444</v>
       </c>
       <c r="T10">
-        <v>2.710797735651821</v>
+        <v>10.04799912370502</v>
       </c>
       <c r="U10">
-        <v>26.00159705906856</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>375</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>62.5</v>
-      </c>
-      <c r="G11">
-        <v>4.950336497904651</v>
-      </c>
-      <c r="H11">
-        <v>12.62540435916925</v>
-      </c>
-      <c r="I11">
-        <v>8.850919925841653</v>
-      </c>
-      <c r="J11">
-        <v>42.36847730427755</v>
-      </c>
-      <c r="K11">
-        <v>1.797388360478103</v>
-      </c>
-      <c r="L11">
-        <v>23.57224417154209</v>
-      </c>
-      <c r="M11">
-        <v>20.28452585881541</v>
-      </c>
-      <c r="N11">
-        <v>18.48699854312983</v>
-      </c>
-      <c r="O11">
-        <v>7.028471460297715</v>
-      </c>
-      <c r="P11">
-        <v>2.630301431478923</v>
-      </c>
-      <c r="Q11">
-        <v>3.09850379732335</v>
-      </c>
-      <c r="R11">
-        <v>36.09447338875533</v>
-      </c>
-      <c r="S11">
-        <v>72.82841547689374</v>
-      </c>
-      <c r="T11">
-        <v>2.832774834252701</v>
-      </c>
-      <c r="U11">
-        <v>27.17158452310626</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>375</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>62.5</v>
-      </c>
-      <c r="G12">
-        <v>4.950336497904651</v>
-      </c>
-      <c r="H12">
-        <v>12.62540435916925</v>
-      </c>
-      <c r="I12">
-        <v>8.946829461669711</v>
-      </c>
-      <c r="J12">
-        <v>41.91428948171939</v>
-      </c>
-      <c r="K12">
-        <v>1.672431892156132</v>
-      </c>
-      <c r="L12">
-        <v>25.06188125107007</v>
-      </c>
-      <c r="M12">
-        <v>18.45592592455802</v>
-      </c>
-      <c r="N12">
-        <v>20.31867713020096</v>
-      </c>
-      <c r="O12">
-        <v>7.284415646561222</v>
-      </c>
-      <c r="P12">
-        <v>2.789335221390457</v>
-      </c>
-      <c r="Q12">
-        <v>3.415163590003863</v>
-      </c>
-      <c r="R12">
-        <v>38.72268790539513</v>
-      </c>
-      <c r="S12">
-        <v>68.25534073626159</v>
-      </c>
-      <c r="T12">
-        <v>3.62698755105202</v>
-      </c>
-      <c r="U12">
-        <v>31.74465926373841</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>375</v>
-      </c>
-      <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>62.5</v>
-      </c>
-      <c r="G13">
-        <v>4.950336497904651</v>
-      </c>
-      <c r="H13">
-        <v>12.62540435916925</v>
-      </c>
-      <c r="I13">
-        <v>9.372980032857395</v>
-      </c>
-      <c r="J13">
-        <v>40.00862038385027</v>
-      </c>
-      <c r="K13">
-        <v>1.589662243086808</v>
-      </c>
-      <c r="L13">
-        <v>25.16800066041795</v>
-      </c>
-      <c r="M13">
-        <v>20.16365234361305</v>
-      </c>
-      <c r="N13">
-        <v>18.59782114914232</v>
-      </c>
-      <c r="O13">
-        <v>7.15340304338539</v>
-      </c>
-      <c r="P13">
-        <v>2.59985646500645</v>
-      </c>
-      <c r="Q13">
-        <v>3.51777737392622</v>
-      </c>
-      <c r="R13">
-        <v>38.38981152206022</v>
-      </c>
-      <c r="S13">
-        <v>66.86036454161871</v>
-      </c>
-      <c r="T13">
-        <v>3.78637062238845</v>
-      </c>
-      <c r="U13">
-        <v>33.13963545838129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>375</v>
-      </c>
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <v>62.5</v>
-      </c>
-      <c r="G14">
-        <v>4.950336497904651</v>
-      </c>
-      <c r="H14">
-        <v>12.62540435916925</v>
-      </c>
-      <c r="I14">
-        <v>9.80122656778887</v>
-      </c>
-      <c r="J14">
-        <v>38.26051743691085</v>
-      </c>
-      <c r="K14">
-        <v>1.514423678046403</v>
-      </c>
-      <c r="L14">
-        <v>25.26407767624623</v>
-      </c>
-      <c r="M14">
-        <v>21.85258119967052</v>
-      </c>
-      <c r="N14">
-        <v>17.16044418613825</v>
-      </c>
-      <c r="O14">
-        <v>7.028138066519508</v>
-      </c>
-      <c r="P14">
-        <v>2.441677158831982</v>
-      </c>
-      <c r="Q14">
-        <v>3.617860495555756</v>
-      </c>
-      <c r="R14">
-        <v>38.04462928046442</v>
-      </c>
-      <c r="S14">
-        <v>65.54043940936229</v>
-      </c>
-      <c r="T14">
-        <v>3.937178731029379</v>
-      </c>
-      <c r="U14">
-        <v>34.45956059063771</v>
+        <v>58.09307303773556</v>
       </c>
     </row>
   </sheetData>
@@ -1630,7 +1478,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1638,64 +1486,64 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -1703,64 +1551,64 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.62322946175638</v>
+        <v>10.45488744957677</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>0.9146341463414634</v>
+        <v>2.134146341463415</v>
       </c>
       <c r="E2">
         <v>1.524390243902439</v>
       </c>
       <c r="F2">
-        <v>6.970260223048327</v>
+        <v>6.859805334015983</v>
       </c>
       <c r="G2">
-        <v>1.704309146199882</v>
+        <v>1.686256257600144</v>
       </c>
       <c r="H2">
-        <v>4.090394552337406</v>
+        <v>4.068673133278813</v>
       </c>
       <c r="I2">
-        <v>2.690859179896463</v>
+        <v>3.096631572537193</v>
       </c>
       <c r="J2">
-        <v>3.948700385683113</v>
+        <v>3.376901669214729</v>
       </c>
       <c r="K2">
-        <v>0.5187118694708623</v>
+        <v>0.3677528775627578</v>
       </c>
       <c r="L2">
-        <v>7.613644246042584</v>
+        <v>9.183895195570582</v>
       </c>
       <c r="M2">
-        <v>7.708262921647513</v>
+        <v>6.432748834826331</v>
       </c>
       <c r="N2">
-        <v>1.378442431126247</v>
+        <v>1.625591266618479</v>
       </c>
       <c r="O2">
-        <v>2.22922119663404</v>
+        <v>2.336629305709781</v>
       </c>
       <c r="P2">
-        <v>0.6184435337973115</v>
+        <v>0.6958027198423788</v>
       </c>
       <c r="Q2">
-        <v>3.37394868655055</v>
+        <v>4.833457065447645</v>
       </c>
       <c r="R2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S2">
-        <v>68.82760718122111</v>
+        <v>52.38600240193701</v>
       </c>
       <c r="T2">
-        <v>1.082024261801951</v>
+        <v>2.220493408749918</v>
       </c>
       <c r="U2">
-        <v>31.17239281877889</v>
+        <v>47.61399759806299</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1768,64 +1616,64 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.62322946175638</v>
+        <v>10.45488744957677</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="D3">
-        <v>0.9146341463414634</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="E3">
         <v>1.524390243902439</v>
       </c>
       <c r="F3">
-        <v>6.970260223048327</v>
+        <v>6.859805334015983</v>
       </c>
       <c r="G3">
-        <v>1.704309146199882</v>
+        <v>1.686256257600144</v>
       </c>
       <c r="H3">
-        <v>4.090394552337406</v>
+        <v>4.068673133278813</v>
       </c>
       <c r="I3">
-        <v>2.198207956174477</v>
+        <v>3.321237476627873</v>
       </c>
       <c r="J3">
-        <v>4.833663098903254</v>
+        <v>3.148531353097078</v>
       </c>
       <c r="K3">
-        <v>0.6495139174653871</v>
+        <v>0.3299749028292142</v>
       </c>
       <c r="L3">
-        <v>7.443076793451062</v>
+        <v>9.543148823825559</v>
       </c>
       <c r="M3">
-        <v>5.167945890041427</v>
+        <v>6.684427148770792</v>
       </c>
       <c r="N3">
-        <v>2.056019336802874</v>
+        <v>1.564385413066673</v>
       </c>
       <c r="O3">
-        <v>2.402164245995093</v>
+        <v>2.31482865593923</v>
       </c>
       <c r="P3">
-        <v>0.8560301875618043</v>
+        <v>0.6759109647335531</v>
       </c>
       <c r="Q3">
-        <v>2.947591226314224</v>
+        <v>5.302250330138467</v>
       </c>
       <c r="R3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3">
-        <v>75.14762912867792</v>
+        <v>48.48799345576432</v>
       </c>
       <c r="T3">
-        <v>0.862650114875718</v>
+        <v>2.559327054169305</v>
       </c>
       <c r="U3">
-        <v>24.85237087132208</v>
+        <v>51.51200654423568</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1833,64 +1681,64 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.62322946175638</v>
+        <v>10.45488744957677</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>0.9146341463414634</v>
+        <v>2.74390243902439</v>
       </c>
       <c r="E4">
         <v>1.524390243902439</v>
       </c>
       <c r="F4">
-        <v>6.970260223048327</v>
+        <v>6.859805334015983</v>
       </c>
       <c r="G4">
-        <v>1.704309146199882</v>
+        <v>1.686256257600144</v>
       </c>
       <c r="H4">
-        <v>4.090394552337406</v>
+        <v>4.068673133278813</v>
       </c>
       <c r="I4">
-        <v>2.29565092214727</v>
+        <v>3.545843380718551</v>
       </c>
       <c r="J4">
-        <v>4.62848971460238</v>
+        <v>2.949092558093979</v>
       </c>
       <c r="K4">
-        <v>0.6185605330156589</v>
+        <v>0.2984400618197475</v>
       </c>
       <c r="L4">
-        <v>7.483791514550578</v>
+        <v>9.883160900388843</v>
       </c>
       <c r="M4">
-        <v>5.683440146281929</v>
+        <v>6.924300613588727</v>
       </c>
       <c r="N4">
-        <v>1.86953612741522</v>
+        <v>1.510191557212623</v>
       </c>
       <c r="O4">
-        <v>2.365326683104589</v>
+        <v>2.292304271717656</v>
       </c>
       <c r="P4">
-        <v>0.7905099029459665</v>
+        <v>0.6589073593090364</v>
       </c>
       <c r="Q4">
-        <v>3.036963434810158</v>
+        <v>5.773993507617236</v>
       </c>
       <c r="R4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S4">
-        <v>73.76360780060803</v>
+        <v>45.06919508620196</v>
       </c>
       <c r="T4">
-        <v>0.910690849654371</v>
+        <v>2.896658898619042</v>
       </c>
       <c r="U4">
-        <v>26.23639219939197</v>
+        <v>54.93080491379804</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1898,64 +1746,64 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.62322946175638</v>
+        <v>10.45488744957677</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>0.9146341463414634</v>
+        <v>2.134146341463415</v>
       </c>
       <c r="E5">
         <v>1.524390243902439</v>
       </c>
       <c r="F5">
-        <v>6.970260223048327</v>
+        <v>6.859805334015983</v>
       </c>
       <c r="G5">
-        <v>1.704309146199882</v>
+        <v>1.686256257600144</v>
       </c>
       <c r="H5">
-        <v>4.090394552337406</v>
+        <v>4.068673133278813</v>
       </c>
       <c r="I5">
-        <v>2.393573148122456</v>
+        <v>3.323998493140378</v>
       </c>
       <c r="J5">
-        <v>4.439135979533688</v>
+        <v>3.145916085047473</v>
       </c>
       <c r="K5">
-        <v>0.5903421679601585</v>
+        <v>0.3415581908830367</v>
       </c>
       <c r="L5">
-        <v>7.520716650843577</v>
+        <v>9.211853302938749</v>
       </c>
       <c r="M5">
-        <v>6.195173506867341</v>
+        <v>7.054828352617669</v>
       </c>
       <c r="N5">
-        <v>1.715108813287936</v>
+        <v>1.482250141828587</v>
       </c>
       <c r="O5">
-        <v>2.329643618917746</v>
+        <v>2.265198322875185</v>
       </c>
       <c r="P5">
-        <v>0.7363202989741505</v>
+        <v>0.65445509498231</v>
       </c>
       <c r="Q5">
-        <v>3.124038012832464</v>
+        <v>5.030644718179307</v>
       </c>
       <c r="R5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S5">
-        <v>72.44474509743749</v>
+        <v>50.6796991664596</v>
       </c>
       <c r="T5">
-        <v>0.9564698647948631</v>
+        <v>2.300067384446954</v>
       </c>
       <c r="U5">
-        <v>27.55525490256251</v>
+        <v>49.3203008335404</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1963,64 +1811,64 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.62322946175638</v>
+        <v>10.45488744957677</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>1.219512195121951</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="E6">
         <v>1.524390243902439</v>
       </c>
       <c r="F6">
-        <v>6.970260223048327</v>
+        <v>6.859805334015983</v>
       </c>
       <c r="G6">
-        <v>1.704309146199882</v>
+        <v>1.686256257600144</v>
       </c>
       <c r="H6">
-        <v>4.090394552337406</v>
+        <v>4.068673133278813</v>
       </c>
       <c r="I6">
-        <v>2.422813860265156</v>
+        <v>3.581085385888656</v>
       </c>
       <c r="J6">
-        <v>4.385560465760771</v>
+        <v>2.920070090327919</v>
       </c>
       <c r="K6">
-        <v>0.5512342735792879</v>
+        <v>0.3052180829196517</v>
       </c>
       <c r="L6">
-        <v>7.957075423150901</v>
+        <v>9.568582366199138</v>
       </c>
       <c r="M6">
-        <v>5.564076931018214</v>
+        <v>7.330228853420552</v>
       </c>
       <c r="N6">
-        <v>1.909642302435183</v>
+        <v>1.4265612350376</v>
       </c>
       <c r="O6">
-        <v>2.405113597464518</v>
+        <v>2.238300830292912</v>
       </c>
       <c r="P6">
-        <v>0.7941106434059334</v>
+        <v>0.6374359403974645</v>
       </c>
       <c r="Q6">
-        <v>3.42053748730596</v>
+        <v>5.527788977077737</v>
       </c>
       <c r="R6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S6">
-        <v>68.18123129752254</v>
+        <v>46.79587480165866</v>
       </c>
       <c r="T6">
-        <v>1.201469042471119</v>
+        <v>2.643398425891132</v>
       </c>
       <c r="U6">
-        <v>31.81876870247746</v>
+        <v>53.20412519834134</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -2028,64 +1876,64 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.62322946175638</v>
+        <v>10.45488744957677</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
       <c r="D7">
-        <v>1.219512195121951</v>
+        <v>2.74390243902439</v>
       </c>
       <c r="E7">
         <v>1.524390243902439</v>
       </c>
       <c r="F7">
-        <v>6.970260223048327</v>
+        <v>6.859805334015983</v>
       </c>
       <c r="G7">
-        <v>1.704309146199882</v>
+        <v>1.686256257600144</v>
       </c>
       <c r="H7">
-        <v>4.090394552337406</v>
+        <v>4.068673133278813</v>
       </c>
       <c r="I7">
-        <v>2.552737814895548</v>
+        <v>3.838172278636933</v>
       </c>
       <c r="J7">
-        <v>4.162353305331859</v>
+        <v>2.724479144525926</v>
       </c>
       <c r="K7">
-        <v>0.5207208941323633</v>
+        <v>0.2750643249227087</v>
       </c>
       <c r="L7">
-        <v>7.994632790012666</v>
+        <v>9.906353114140968</v>
       </c>
       <c r="M7">
-        <v>6.113218590002804</v>
+        <v>7.593939907242421</v>
       </c>
       <c r="N7">
-        <v>1.73810187302189</v>
+        <v>1.377021737592486</v>
       </c>
       <c r="O7">
-        <v>2.356527930677959</v>
+        <v>2.211562532813305</v>
       </c>
       <c r="P7">
-        <v>0.737678659624203</v>
+        <v>0.6227391309119114</v>
       </c>
       <c r="Q7">
-        <v>3.535940955409418</v>
+        <v>6.028449911201171</v>
       </c>
       <c r="R7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S7">
-        <v>66.6178512629338</v>
+        <v>43.40521404524007</v>
       </c>
       <c r="T7">
-        <v>1.260501896028072</v>
+        <v>2.984405391629641</v>
       </c>
       <c r="U7">
-        <v>33.3821487370662</v>
+        <v>56.59478595475993</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -2093,64 +1941,64 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.62322946175638</v>
+        <v>10.45488744957677</v>
       </c>
       <c r="C8">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>1.219512195121951</v>
+        <v>2.134146341463415</v>
       </c>
       <c r="E8">
         <v>1.524390243902439</v>
       </c>
       <c r="F8">
-        <v>6.970260223048327</v>
+        <v>6.859805334015983</v>
       </c>
       <c r="G8">
-        <v>1.704309146199882</v>
+        <v>1.686256257600144</v>
       </c>
       <c r="H8">
-        <v>4.090394552337406</v>
+        <v>4.068673133278813</v>
       </c>
       <c r="I8">
-        <v>2.683300782862461</v>
+        <v>3.552483687082477</v>
       </c>
       <c r="J8">
-        <v>3.95982319587045</v>
+        <v>2.943580111083308</v>
       </c>
       <c r="K8">
-        <v>0.4933113575417437</v>
+        <v>0.3187502337563527</v>
       </c>
       <c r="L8">
-        <v>8.028219995722438</v>
+        <v>9.236127762370884</v>
       </c>
       <c r="M8">
-        <v>6.654839006808129</v>
+        <v>7.663576285485733</v>
       </c>
       <c r="N8">
-        <v>1.596642183320432</v>
+        <v>1.364509197363733</v>
       </c>
       <c r="O8">
-        <v>2.310362479065425</v>
+        <v>2.199650025070694</v>
       </c>
       <c r="P8">
-        <v>0.6911814280275143</v>
+        <v>0.6204223912808142</v>
       </c>
       <c r="Q8">
-        <v>3.648108057279673</v>
+        <v>5.221240064770532</v>
       </c>
       <c r="R8">
         <v>13</v>
       </c>
       <c r="S8">
-        <v>65.14934104066661</v>
+        <v>49.12340463046594</v>
       </c>
       <c r="T8">
-        <v>1.315952488321701</v>
+        <v>2.37264565834907</v>
       </c>
       <c r="U8">
-        <v>34.85065895933339</v>
+        <v>50.87659536953406</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -2158,64 +2006,64 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.62322946175638</v>
+        <v>10.45488744957677</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>0.9146341463414634</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="E9">
-        <v>1.829268292682927</v>
+        <v>1.524390243902439</v>
       </c>
       <c r="F9">
-        <v>5.808550185873606</v>
+        <v>6.859805334015983</v>
       </c>
       <c r="G9">
-        <v>1.509248932288003</v>
+        <v>1.686256257600144</v>
       </c>
       <c r="H9">
-        <v>3.849208646088185</v>
+        <v>4.068673133278813</v>
       </c>
       <c r="I9">
-        <v>2.503086004954965</v>
+        <v>3.842211321822482</v>
       </c>
       <c r="J9">
-        <v>4.244918736488754</v>
+        <v>2.721615093592453</v>
       </c>
       <c r="K9">
-        <v>0.5962496634726022</v>
+        <v>0.2838244105166602</v>
       </c>
       <c r="L9">
-        <v>7.120423381573484</v>
+        <v>9.590506503489726</v>
       </c>
       <c r="M9">
-        <v>5.222874150818472</v>
+        <v>7.961808385947398</v>
       </c>
       <c r="N9">
-        <v>2.034396459621952</v>
+        <v>1.313397637740257</v>
       </c>
       <c r="O9">
-        <v>2.201387117864711</v>
+        <v>2.168615149898512</v>
       </c>
       <c r="P9">
-        <v>0.9242804232770381</v>
+        <v>0.605728945318413</v>
       </c>
       <c r="Q9">
-        <v>2.943070937822653</v>
+        <v>5.745471277938647</v>
       </c>
       <c r="R9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S9">
-        <v>75.21842637502412</v>
+        <v>45.2631407642318</v>
       </c>
       <c r="T9">
-        <v>0.7876841873834491</v>
+        <v>2.719550918329261</v>
       </c>
       <c r="U9">
-        <v>24.78157362497588</v>
+        <v>54.7368592357682</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -2223,324 +2071,64 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.62322946175638</v>
+        <v>10.45488744957677</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>0.9146341463414634</v>
+        <v>2.74390243902439</v>
       </c>
       <c r="E10">
-        <v>1.829268292682927</v>
+        <v>1.524390243902439</v>
       </c>
       <c r="F10">
-        <v>5.808550185873606</v>
+        <v>6.859805334015983</v>
       </c>
       <c r="G10">
-        <v>1.509248932288003</v>
+        <v>1.686256257600144</v>
       </c>
       <c r="H10">
-        <v>3.849208646088185</v>
+        <v>4.068673133278813</v>
       </c>
       <c r="I10">
-        <v>2.600528970927758</v>
+        <v>4.131938956562488</v>
       </c>
       <c r="J10">
-        <v>4.085859761710488</v>
+        <v>2.530778028469098</v>
       </c>
       <c r="K10">
-        <v>0.57113752413282</v>
+        <v>0.2549968111094525</v>
       </c>
       <c r="L10">
-        <v>7.154962232716751</v>
+        <v>9.926219850727135</v>
       </c>
       <c r="M10">
-        <v>5.704780122037053</v>
+        <v>8.248769499295946</v>
       </c>
       <c r="N10">
-        <v>1.862542719294501</v>
+        <v>1.267706695784918</v>
       </c>
       <c r="O10">
-        <v>2.171709600312487</v>
+        <v>2.138521816532921</v>
       </c>
       <c r="P10">
-        <v>0.8577664887796733</v>
+        <v>0.5928839353377482</v>
       </c>
       <c r="Q10">
-        <v>3.021662705750202</v>
+        <v>6.273725334853361</v>
       </c>
       <c r="R10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S10">
-        <v>73.99840294093144</v>
+        <v>41.90692696226444</v>
       </c>
       <c r="T10">
-        <v>0.8264627242840917</v>
+        <v>3.063414366983237</v>
       </c>
       <c r="U10">
-        <v>26.00159705906856</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>10.62322946175638</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>0.9146341463414634</v>
-      </c>
-      <c r="E11">
-        <v>1.829268292682927</v>
-      </c>
-      <c r="F11">
-        <v>5.808550185873606</v>
-      </c>
-      <c r="G11">
-        <v>1.509248932288003</v>
-      </c>
-      <c r="H11">
-        <v>3.849208646088185</v>
-      </c>
-      <c r="I11">
-        <v>2.698451196902943</v>
-      </c>
-      <c r="J11">
-        <v>3.937590827535088</v>
-      </c>
-      <c r="K11">
-        <v>0.547984256243324</v>
-      </c>
-      <c r="L11">
-        <v>7.186659808396978</v>
-      </c>
-      <c r="M11">
-        <v>6.184306664272992</v>
-      </c>
-      <c r="N11">
-        <v>1.71812254118307</v>
-      </c>
-      <c r="O11">
-        <v>2.142826664724913</v>
-      </c>
-      <c r="P11">
-        <v>0.8019211681338179</v>
-      </c>
-      <c r="Q11">
-        <v>3.09850379732335</v>
-      </c>
-      <c r="R11">
-        <v>12</v>
-      </c>
-      <c r="S11">
-        <v>72.82841547689374</v>
-      </c>
-      <c r="T11">
-        <v>0.8636508641014333</v>
-      </c>
-      <c r="U11">
-        <v>27.17158452310626</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>10.62322946175638</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>1.219512195121951</v>
-      </c>
-      <c r="E12">
-        <v>1.829268292682927</v>
-      </c>
-      <c r="F12">
-        <v>5.808550185873606</v>
-      </c>
-      <c r="G12">
-        <v>1.509248932288003</v>
-      </c>
-      <c r="H12">
-        <v>3.849208646088185</v>
-      </c>
-      <c r="I12">
-        <v>2.727691909045644</v>
-      </c>
-      <c r="J12">
-        <v>3.895380063356821</v>
-      </c>
-      <c r="K12">
-        <v>0.5098877719988206</v>
-      </c>
-      <c r="L12">
-        <v>7.640817454594534</v>
-      </c>
-      <c r="M12">
-        <v>5.626806684316469</v>
-      </c>
-      <c r="N12">
-        <v>1.888352893141353</v>
-      </c>
-      <c r="O12">
-        <v>2.220858428829641</v>
-      </c>
-      <c r="P12">
-        <v>0.8504070796922125</v>
-      </c>
-      <c r="Q12">
-        <v>3.415163590003863</v>
-      </c>
-      <c r="R12">
-        <v>12</v>
-      </c>
-      <c r="S12">
-        <v>68.25534073626159</v>
-      </c>
-      <c r="T12">
-        <v>1.10578888751586</v>
-      </c>
-      <c r="U12">
-        <v>31.74465926373841</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>10.62322946175638</v>
-      </c>
-      <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>1.219512195121951</v>
-      </c>
-      <c r="E13">
-        <v>1.829268292682927</v>
-      </c>
-      <c r="F13">
-        <v>5.808550185873606</v>
-      </c>
-      <c r="G13">
-        <v>1.509248932288003</v>
-      </c>
-      <c r="H13">
-        <v>3.849208646088185</v>
-      </c>
-      <c r="I13">
-        <v>2.857615863676035</v>
-      </c>
-      <c r="J13">
-        <v>3.71827326987456</v>
-      </c>
-      <c r="K13">
-        <v>0.4846531228923196</v>
-      </c>
-      <c r="L13">
-        <v>7.673170933054254</v>
-      </c>
-      <c r="M13">
-        <v>6.147454982808857</v>
-      </c>
-      <c r="N13">
-        <v>1.728422039883116</v>
-      </c>
-      <c r="O13">
-        <v>2.180915562007741</v>
-      </c>
-      <c r="P13">
-        <v>0.7926391661605031</v>
-      </c>
-      <c r="Q13">
-        <v>3.51777737392622</v>
-      </c>
-      <c r="R13">
-        <v>12</v>
-      </c>
-      <c r="S13">
-        <v>66.86036454161871</v>
-      </c>
-      <c r="T13">
-        <v>1.154381287313552</v>
-      </c>
-      <c r="U13">
-        <v>33.13963545838129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>10.62322946175638</v>
-      </c>
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>1.219512195121951</v>
-      </c>
-      <c r="E14">
-        <v>1.829268292682927</v>
-      </c>
-      <c r="F14">
-        <v>5.808550185873606</v>
-      </c>
-      <c r="G14">
-        <v>1.509248932288003</v>
-      </c>
-      <c r="H14">
-        <v>3.849208646088185</v>
-      </c>
-      <c r="I14">
-        <v>2.988178831642948</v>
-      </c>
-      <c r="J14">
-        <v>3.555810170716622</v>
-      </c>
-      <c r="K14">
-        <v>0.4617145359897571</v>
-      </c>
-      <c r="L14">
-        <v>7.702462706172633</v>
-      </c>
-      <c r="M14">
-        <v>6.662372316972719</v>
-      </c>
-      <c r="N14">
-        <v>1.594836820273072</v>
-      </c>
-      <c r="O14">
-        <v>2.142725020280338</v>
-      </c>
-      <c r="P14">
-        <v>0.7444137679365799</v>
-      </c>
-      <c r="Q14">
-        <v>3.617860495555756</v>
-      </c>
-      <c r="R14">
-        <v>12</v>
-      </c>
-      <c r="S14">
-        <v>65.54043940936229</v>
-      </c>
-      <c r="T14">
-        <v>1.200359369216274</v>
-      </c>
-      <c r="U14">
-        <v>34.45956059063771</v>
+        <v>58.09307303773556</v>
       </c>
     </row>
   </sheetData>
